--- a/REGULAR/OJT/TORRES, SONIA.xlsx
+++ b/REGULAR/OJT/TORRES, SONIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96AEA21-FAA0-4C2A-8766-030CD0A19751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
   <si>
     <t>PERIOD</t>
   </si>
@@ -754,12 +753,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/8-9/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1132,6 +1134,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,7 +1168,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,7 +1428,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1443,25 +1445,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1768,95 +1770,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A511" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="K524" sqref="K524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1864,7 +1866,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1877,24 +1879,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1948,12 +1950,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>320.5</v>
+        <v>319.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>78</v>
       </c>
@@ -1975,7 +1977,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34335</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>34347</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>103</v>
@@ -2023,7 +2025,7 @@
         <v>34354</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -2045,7 +2047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>34366</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>34367</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2091,7 +2093,7 @@
         <v>34380</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>34394</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>34422</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>74</v>
@@ -2139,7 +2141,7 @@
         <v>34395</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>105</v>
@@ -2159,7 +2161,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>34425</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>34449</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -2207,7 +2209,7 @@
         <v>34442</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>74</v>
@@ -2229,7 +2231,7 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34455</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>34456</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>103</v>
@@ -2277,7 +2279,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>70</v>
@@ -2299,7 +2301,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -2321,7 +2323,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>106</v>
@@ -2341,7 +2343,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>34486</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>34487</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>106</v>
@@ -2387,7 +2389,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34516</v>
       </c>
@@ -2411,7 +2413,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34547</v>
       </c>
@@ -2431,7 +2433,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34578</v>
       </c>
@@ -2451,7 +2453,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>34608</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>34631</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>103</v>
@@ -2499,7 +2501,7 @@
         <v>34634</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34639</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>34654</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>103</v>
@@ -2547,7 +2549,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>34669</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>34689</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>103</v>
@@ -2595,7 +2597,7 @@
         <v>34691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>103</v>
@@ -2617,7 +2619,7 @@
         <v>34694</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>110</v>
@@ -2637,7 +2639,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>79</v>
       </c>
@@ -2655,7 +2657,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>34700</v>
       </c>
@@ -2681,7 +2683,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -2703,7 +2705,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>103</v>
@@ -2725,7 +2727,7 @@
         <v>34718</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>112</v>
@@ -2745,7 +2747,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>34731</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>34754</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>34759</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>34782</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>116</v>
@@ -2817,7 +2819,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>34790</v>
       </c>
@@ -2837,7 +2839,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>34820</v>
       </c>
@@ -2857,7 +2859,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>34851</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>34866</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>117</v>
@@ -2903,7 +2905,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>34881</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>109</v>
@@ -2949,7 +2951,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>34912</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>34929</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>119</v>
@@ -2995,7 +2997,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>34943</v>
       </c>
@@ -3019,7 +3021,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>48</v>
@@ -3041,7 +3043,7 @@
         <v>34967</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>34973</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35004</v>
       </c>
@@ -3091,7 +3093,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>35034</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
@@ -3139,7 +3141,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>103</v>
@@ -3161,7 +3163,7 @@
         <v>35045</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>103</v>
@@ -3183,7 +3185,7 @@
         <v>35054</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>123</v>
@@ -3203,7 +3205,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>80</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35065</v>
       </c>
@@ -3245,7 +3247,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>35096</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>35117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>103</v>
@@ -3293,7 +3295,7 @@
         <v>35123</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>35125</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>35151</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>35156</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>35186</v>
       </c>
@@ -3363,7 +3365,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>70</v>
@@ -3385,7 +3387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>35217</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>35247</v>
       </c>
@@ -3429,7 +3431,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>35278</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>35293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>35309</v>
       </c>
@@ -3477,7 +3479,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>35339</v>
       </c>
@@ -3497,7 +3499,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>35370</v>
       </c>
@@ -3517,7 +3519,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>35400</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>35418</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>128</v>
@@ -3563,7 +3565,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>81</v>
       </c>
@@ -3581,7 +3583,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>35431</v>
       </c>
@@ -3605,7 +3607,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>35462</v>
       </c>
@@ -3625,7 +3627,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>35490</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>129</v>
@@ -3671,7 +3673,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>35521</v>
       </c>
@@ -3691,7 +3693,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>35551</v>
       </c>
@@ -3711,7 +3713,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>35582</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -3757,7 +3759,7 @@
         <v>35583</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>35612</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -3805,7 +3807,7 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>35643</v>
       </c>
@@ -3827,7 +3829,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>35674</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>49</v>
@@ -3873,7 +3875,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>103</v>
@@ -3895,7 +3897,7 @@
         <v>35677</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>103</v>
@@ -3917,7 +3919,7 @@
         <v>35684</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -3939,7 +3941,7 @@
         <v>35696</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>132</v>
@@ -3959,7 +3961,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>35704</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>35734</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>103</v>
@@ -4007,7 +4009,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
@@ -4029,7 +4031,7 @@
         <v>35733</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>134</v>
@@ -4049,7 +4051,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>35735</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>35746</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>135</v>
@@ -4095,7 +4097,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>35765</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>35787</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>136</v>
@@ -4141,7 +4143,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>82</v>
       </c>
@@ -4159,7 +4161,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>35796</v>
       </c>
@@ -4185,7 +4187,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>138</v>
@@ -4205,7 +4207,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>35827</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>74</v>
@@ -4253,7 +4255,7 @@
         <v>35853</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>128</v>
@@ -4273,7 +4275,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>35855</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -4319,7 +4321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>142</v>
@@ -4339,7 +4341,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>35886</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
@@ -4387,7 +4389,7 @@
         <v>35905</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>144</v>
@@ -4407,7 +4409,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>35916</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>111</v>
@@ -4455,7 +4457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
@@ -4475,7 +4477,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>35947</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>45</v>
@@ -4521,7 +4523,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>45</v>
@@ -4541,7 +4543,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>148</v>
@@ -4561,7 +4563,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>35977</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>36005</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
@@ -4607,7 +4609,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>36008</v>
       </c>
@@ -4631,7 +4633,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>36039</v>
       </c>
@@ -4655,7 +4657,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>36069</v>
       </c>
@@ -4675,7 +4677,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>36100</v>
       </c>
@@ -4699,7 +4701,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>36130</v>
       </c>
@@ -4723,7 +4725,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>83</v>
       </c>
@@ -4741,7 +4743,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>36161</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>36181</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>155</v>
@@ -4787,7 +4789,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>36192</v>
       </c>
@@ -4811,7 +4813,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>36220</v>
       </c>
@@ -4835,7 +4837,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>36251</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>109</v>
@@ -4881,7 +4883,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>36281</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>111</v>
@@ -4929,7 +4931,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>159</v>
@@ -4949,7 +4951,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>36312</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>48</v>
@@ -4995,7 +4997,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>36342</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>36360</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>162</v>
@@ -5041,7 +5043,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>36373</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>36399</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>124</v>
@@ -5087,7 +5089,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>36404</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>36413</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -5135,7 +5137,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>124</v>
@@ -5155,7 +5157,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>36434</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>48</v>
@@ -5203,7 +5205,7 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>163</v>
@@ -5223,7 +5225,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>36465</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>36483</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -5269,7 +5271,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>36495</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>166</v>
@@ -5315,7 +5317,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>84</v>
       </c>
@@ -5333,7 +5335,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>36526</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>123</v>
@@ -5379,7 +5381,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>36557</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>36584</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>45</v>
@@ -5425,7 +5427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>168</v>
@@ -5445,7 +5447,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>36586</v>
       </c>
@@ -5469,7 +5471,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>36617</v>
       </c>
@@ -5493,7 +5495,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>36647</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -5539,7 +5541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>172</v>
@@ -5559,7 +5561,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>36678</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5607,7 +5609,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>173</v>
@@ -5627,7 +5629,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>36708</v>
       </c>
@@ -5651,7 +5653,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>36739</v>
       </c>
@@ -5675,7 +5677,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>36770</v>
       </c>
@@ -5699,7 +5701,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>36800</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>36825</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>177</v>
@@ -5745,7 +5747,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>36831</v>
       </c>
@@ -5769,7 +5771,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>36861</v>
       </c>
@@ -5793,7 +5795,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>178</v>
@@ -5813,7 +5815,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>85</v>
       </c>
@@ -5831,7 +5833,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>36892</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -5877,7 +5879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>179</v>
@@ -5897,7 +5899,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>36923</v>
       </c>
@@ -5921,7 +5923,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>36951</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
@@ -5967,7 +5969,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>36982</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>183</v>
@@ -6013,7 +6015,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>37012</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -6061,7 +6063,7 @@
         <v>37026</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>70</v>
@@ -6083,7 +6085,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>185</v>
@@ -6103,7 +6105,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>37043</v>
       </c>
@@ -6127,7 +6129,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>37073</v>
       </c>
@@ -6151,7 +6153,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>37104</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>37118</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>159</v>
@@ -6197,7 +6199,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="48"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>37135</v>
       </c>
@@ -6221,7 +6223,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>37165</v>
       </c>
@@ -6245,7 +6247,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>37196</v>
       </c>
@@ -6271,7 +6273,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>45</v>
@@ -6291,7 +6293,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>119</v>
@@ -6311,7 +6313,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>37226</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>37240</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>195</v>
@@ -6357,7 +6359,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="48"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>86</v>
       </c>
@@ -6375,7 +6377,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>37257</v>
       </c>
@@ -6399,7 +6401,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>37288</v>
       </c>
@@ -6423,7 +6425,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>37316</v>
       </c>
@@ -6447,7 +6449,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>37347</v>
       </c>
@@ -6471,7 +6473,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>37377</v>
       </c>
@@ -6495,7 +6497,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>37408</v>
       </c>
@@ -6519,7 +6521,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>37438</v>
       </c>
@@ -6545,7 +6547,7 @@
         <v>37455</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>198</v>
@@ -6565,7 +6567,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="48"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>37469</v>
       </c>
@@ -6585,7 +6587,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>37500</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>49</v>
@@ -6633,7 +6635,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>37530</v>
       </c>
@@ -6657,7 +6659,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>37561</v>
       </c>
@@ -6683,7 +6685,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>155</v>
@@ -6703,7 +6705,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>37591</v>
       </c>
@@ -6727,7 +6729,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
         <v>87</v>
       </c>
@@ -6745,7 +6747,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>37622</v>
       </c>
@@ -6769,7 +6771,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>37653</v>
       </c>
@@ -6789,7 +6791,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>37681</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -6833,7 +6835,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>37712</v>
       </c>
@@ -6853,7 +6855,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>37742</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>37773</v>
       </c>
@@ -6903,7 +6905,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>37803</v>
       </c>
@@ -6927,7 +6929,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>37834</v>
       </c>
@@ -6951,7 +6953,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>37865</v>
       </c>
@@ -6975,7 +6977,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>37895</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>37917</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>45</v>
@@ -7021,7 +7023,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>168</v>
@@ -7041,7 +7043,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="48"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>37926</v>
       </c>
@@ -7067,7 +7069,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>112</v>
@@ -7087,7 +7089,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>37956</v>
       </c>
@@ -7111,7 +7113,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>211</v>
@@ -7131,7 +7133,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="47" t="s">
         <v>88</v>
       </c>
@@ -7149,7 +7151,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>37987</v>
       </c>
@@ -7169,7 +7171,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>38018</v>
       </c>
@@ -7195,7 +7197,7 @@
         <v>38043</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>212</v>
@@ -7215,7 +7217,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>38047</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>191</v>
@@ -7261,7 +7263,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>38078</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
@@ -7309,7 +7311,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>214</v>
@@ -7329,7 +7331,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>38108</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -7377,7 +7379,7 @@
         <v>38128</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>217</v>
@@ -7397,7 +7399,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>38139</v>
       </c>
@@ -7421,7 +7423,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>38169</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>38200</v>
       </c>
@@ -7471,7 +7473,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>38231</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>221</v>
@@ -7515,7 +7517,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>38261</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
@@ -7559,7 +7561,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>38292</v>
       </c>
@@ -7583,7 +7585,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>38322</v>
       </c>
@@ -7607,7 +7609,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="47" t="s">
         <v>89</v>
       </c>
@@ -7625,7 +7627,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>38353</v>
       </c>
@@ -7649,7 +7651,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>38384</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>156</v>
@@ -7695,7 +7697,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="48"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>38412</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>227</v>
@@ -7741,7 +7743,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>38443</v>
       </c>
@@ -7765,7 +7767,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>38473</v>
       </c>
@@ -7789,7 +7791,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -7809,7 +7811,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>38504</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>105</v>
@@ -7855,7 +7857,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>38534</v>
       </c>
@@ -7879,7 +7881,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>38565</v>
       </c>
@@ -7903,7 +7905,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>38596</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>45</v>
@@ -7949,7 +7951,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>234</v>
@@ -7969,7 +7971,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>38626</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>38642</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>64</v>
@@ -8015,7 +8017,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>236</v>
@@ -8035,7 +8037,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="48"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>38657</v>
       </c>
@@ -8059,7 +8061,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>38687</v>
       </c>
@@ -8083,7 +8085,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="47" t="s">
         <v>90</v>
       </c>
@@ -8101,7 +8103,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>38718</v>
       </c>
@@ -8121,7 +8123,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>38749</v>
       </c>
@@ -8141,7 +8143,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>38777</v>
       </c>
@@ -8161,7 +8163,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>38808</v>
       </c>
@@ -8181,7 +8183,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>38838</v>
       </c>
@@ -8201,7 +8203,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>38869</v>
       </c>
@@ -8221,7 +8223,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>38899</v>
       </c>
@@ -8241,7 +8243,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>38930</v>
       </c>
@@ -8261,7 +8263,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>38961</v>
       </c>
@@ -8281,7 +8283,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>38991</v>
       </c>
@@ -8301,7 +8303,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>39022</v>
       </c>
@@ -8321,7 +8323,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>39052</v>
       </c>
@@ -8345,7 +8347,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="47" t="s">
         <v>91</v>
       </c>
@@ -8363,7 +8365,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>39083</v>
       </c>
@@ -8383,7 +8385,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>39114</v>
       </c>
@@ -8403,7 +8405,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>39142</v>
       </c>
@@ -8423,7 +8425,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>39173</v>
       </c>
@@ -8443,7 +8445,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>39203</v>
       </c>
@@ -8463,7 +8465,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>39234</v>
       </c>
@@ -8483,7 +8485,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>39264</v>
       </c>
@@ -8503,7 +8505,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>39295</v>
       </c>
@@ -8523,7 +8525,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>39326</v>
       </c>
@@ -8543,7 +8545,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>39356</v>
       </c>
@@ -8563,7 +8565,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>39387</v>
       </c>
@@ -8583,7 +8585,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>39417</v>
       </c>
@@ -8607,7 +8609,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="47" t="s">
         <v>92</v>
       </c>
@@ -8625,7 +8627,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>39448</v>
       </c>
@@ -8645,7 +8647,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>39479</v>
       </c>
@@ -8665,7 +8667,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>39508</v>
       </c>
@@ -8685,7 +8687,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>39539</v>
       </c>
@@ -8705,7 +8707,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>39569</v>
       </c>
@@ -8725,7 +8727,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>39600</v>
       </c>
@@ -8745,7 +8747,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>39630</v>
       </c>
@@ -8765,7 +8767,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>39661</v>
       </c>
@@ -8785,7 +8787,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>39692</v>
       </c>
@@ -8805,7 +8807,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>39722</v>
       </c>
@@ -8825,7 +8827,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>39753</v>
       </c>
@@ -8845,7 +8847,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>39783</v>
       </c>
@@ -8869,7 +8871,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="47" t="s">
         <v>93</v>
       </c>
@@ -8887,7 +8889,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>39814</v>
       </c>
@@ -8907,7 +8909,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>39845</v>
       </c>
@@ -8927,7 +8929,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>39873</v>
       </c>
@@ -8947,7 +8949,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>39904</v>
       </c>
@@ -8967,7 +8969,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>39934</v>
       </c>
@@ -8987,7 +8989,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>39965</v>
       </c>
@@ -9007,7 +9009,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>39995</v>
       </c>
@@ -9027,7 +9029,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>40026</v>
       </c>
@@ -9047,7 +9049,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>40057</v>
       </c>
@@ -9067,7 +9069,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>40087</v>
       </c>
@@ -9087,7 +9089,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>40118</v>
       </c>
@@ -9107,7 +9109,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>40148</v>
       </c>
@@ -9131,7 +9133,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="47" t="s">
         <v>94</v>
       </c>
@@ -9149,7 +9151,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>40179</v>
       </c>
@@ -9169,7 +9171,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>40210</v>
       </c>
@@ -9189,7 +9191,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>40238</v>
       </c>
@@ -9209,7 +9211,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>40269</v>
       </c>
@@ -9229,7 +9231,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>40299</v>
       </c>
@@ -9249,7 +9251,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>40330</v>
       </c>
@@ -9269,7 +9271,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40360</v>
       </c>
@@ -9289,7 +9291,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>40391</v>
       </c>
@@ -9309,7 +9311,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>40422</v>
       </c>
@@ -9329,7 +9331,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>40452</v>
       </c>
@@ -9349,7 +9351,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>40483</v>
       </c>
@@ -9369,7 +9371,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>40513</v>
       </c>
@@ -9393,7 +9395,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="47" t="s">
         <v>95</v>
       </c>
@@ -9411,7 +9413,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>40544</v>
       </c>
@@ -9431,7 +9433,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>40575</v>
       </c>
@@ -9451,7 +9453,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>40603</v>
       </c>
@@ -9471,7 +9473,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>40634</v>
       </c>
@@ -9491,7 +9493,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>40664</v>
       </c>
@@ -9511,7 +9513,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>40695</v>
       </c>
@@ -9531,7 +9533,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>40725</v>
       </c>
@@ -9551,7 +9553,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>40756</v>
       </c>
@@ -9571,7 +9573,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>40787</v>
       </c>
@@ -9591,7 +9593,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40817</v>
       </c>
@@ -9611,7 +9613,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>40848</v>
       </c>
@@ -9631,7 +9633,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>40878</v>
       </c>
@@ -9655,7 +9657,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="47" t="s">
         <v>96</v>
       </c>
@@ -9673,7 +9675,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>40909</v>
       </c>
@@ -9693,7 +9695,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>40940</v>
       </c>
@@ -9713,7 +9715,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>40969</v>
       </c>
@@ -9733,7 +9735,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>41000</v>
       </c>
@@ -9753,7 +9755,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>41030</v>
       </c>
@@ -9773,7 +9775,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>41061</v>
       </c>
@@ -9793,7 +9795,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>41091</v>
       </c>
@@ -9813,7 +9815,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>41122</v>
       </c>
@@ -9833,7 +9835,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>41153</v>
       </c>
@@ -9853,7 +9855,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>41183</v>
       </c>
@@ -9873,7 +9875,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>41214</v>
       </c>
@@ -9893,7 +9895,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>41244</v>
       </c>
@@ -9917,7 +9919,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="47" t="s">
         <v>97</v>
       </c>
@@ -9935,7 +9937,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>41275</v>
       </c>
@@ -9955,7 +9957,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>41306</v>
       </c>
@@ -9975,7 +9977,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>41334</v>
       </c>
@@ -9995,7 +9997,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>41365</v>
       </c>
@@ -10015,7 +10017,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>41395</v>
       </c>
@@ -10035,7 +10037,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>41426</v>
       </c>
@@ -10055,7 +10057,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>41456</v>
       </c>
@@ -10075,7 +10077,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>41487</v>
       </c>
@@ -10095,7 +10097,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>41518</v>
       </c>
@@ -10115,7 +10117,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>41548</v>
       </c>
@@ -10135,7 +10137,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>41579</v>
       </c>
@@ -10155,7 +10157,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>41609</v>
       </c>
@@ -10179,7 +10181,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="47" t="s">
         <v>98</v>
       </c>
@@ -10197,7 +10199,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>41640</v>
       </c>
@@ -10217,7 +10219,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>41671</v>
       </c>
@@ -10237,7 +10239,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>41699</v>
       </c>
@@ -10257,7 +10259,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>41730</v>
       </c>
@@ -10277,7 +10279,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>41760</v>
       </c>
@@ -10297,7 +10299,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>41791</v>
       </c>
@@ -10317,7 +10319,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>41821</v>
       </c>
@@ -10337,7 +10339,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>41852</v>
       </c>
@@ -10357,7 +10359,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>41883</v>
       </c>
@@ -10377,7 +10379,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>41913</v>
       </c>
@@ -10397,7 +10399,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>41944</v>
       </c>
@@ -10417,7 +10419,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>41974</v>
       </c>
@@ -10441,7 +10443,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
         <v>99</v>
       </c>
@@ -10459,7 +10461,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>42005</v>
       </c>
@@ -10479,7 +10481,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>42036</v>
       </c>
@@ -10499,7 +10501,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>42064</v>
       </c>
@@ -10519,7 +10521,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>42095</v>
       </c>
@@ -10539,7 +10541,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>42125</v>
       </c>
@@ -10559,7 +10561,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>42156</v>
       </c>
@@ -10579,7 +10581,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>42186</v>
       </c>
@@ -10599,7 +10601,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>42217</v>
       </c>
@@ -10619,7 +10621,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>42248</v>
       </c>
@@ -10639,7 +10641,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>42278</v>
       </c>
@@ -10659,7 +10661,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>42309</v>
       </c>
@@ -10679,7 +10681,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>42339</v>
       </c>
@@ -10703,7 +10705,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>100</v>
       </c>
@@ -10721,7 +10723,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>42370</v>
       </c>
@@ -10741,7 +10743,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>42401</v>
       </c>
@@ -10761,7 +10763,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>42430</v>
       </c>
@@ -10781,7 +10783,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>42461</v>
       </c>
@@ -10801,7 +10803,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>42491</v>
       </c>
@@ -10821,7 +10823,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>42522</v>
       </c>
@@ -10841,7 +10843,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>42552</v>
       </c>
@@ -10861,7 +10863,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>42583</v>
       </c>
@@ -10881,7 +10883,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>42614</v>
       </c>
@@ -10901,7 +10903,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>42644</v>
       </c>
@@ -10921,7 +10923,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>42675</v>
       </c>
@@ -10941,7 +10943,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>42705</v>
       </c>
@@ -10965,7 +10967,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
         <v>101</v>
       </c>
@@ -10983,7 +10985,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>42736</v>
       </c>
@@ -11003,7 +11005,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>42767</v>
       </c>
@@ -11023,7 +11025,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>42795</v>
       </c>
@@ -11043,7 +11045,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>42826</v>
       </c>
@@ -11063,7 +11065,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>42856</v>
       </c>
@@ -11083,7 +11085,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>42887</v>
       </c>
@@ -11103,7 +11105,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>42917</v>
       </c>
@@ -11123,7 +11125,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>42948</v>
       </c>
@@ -11143,7 +11145,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>42979</v>
       </c>
@@ -11163,7 +11165,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>43009</v>
       </c>
@@ -11183,7 +11185,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>43040</v>
       </c>
@@ -11203,7 +11205,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <v>43070</v>
       </c>
@@ -11227,7 +11229,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="47" t="s">
         <v>44</v>
       </c>
@@ -11245,7 +11247,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43101</v>
       </c>
@@ -11265,7 +11267,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43132</v>
       </c>
@@ -11285,7 +11287,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43160</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43191</v>
       </c>
@@ -11329,7 +11331,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43221</v>
       </c>
@@ -11349,7 +11351,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43252</v>
       </c>
@@ -11369,7 +11371,7 @@
       <c r="J443" s="12"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43282</v>
       </c>
@@ -11393,7 +11395,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43313</v>
       </c>
@@ -11419,7 +11421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43344</v>
       </c>
@@ -11439,7 +11441,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43374</v>
       </c>
@@ -11465,7 +11467,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -11482,7 +11484,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -11501,7 +11503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43405</v>
       </c>
@@ -11527,7 +11529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43435</v>
       </c>
@@ -11553,7 +11555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -11572,7 +11574,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
         <v>46</v>
       </c>
@@ -11590,7 +11592,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43466</v>
       </c>
@@ -11614,7 +11616,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43497</v>
       </c>
@@ -11640,7 +11642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43525</v>
       </c>
@@ -11660,7 +11662,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43556</v>
       </c>
@@ -11680,7 +11682,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43586</v>
       </c>
@@ -11706,7 +11708,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -11725,7 +11727,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43617</v>
       </c>
@@ -11745,7 +11747,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43647</v>
       </c>
@@ -11765,7 +11767,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43678</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43709</v>
       </c>
@@ -11815,7 +11817,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>47</v>
@@ -11834,7 +11836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>48</v>
@@ -11853,7 +11855,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43739</v>
       </c>
@@ -11879,7 +11881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43770</v>
       </c>
@@ -11905,7 +11907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43800</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="47" t="s">
         <v>60</v>
       </c>
@@ -11949,7 +11951,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43831</v>
       </c>
@@ -11973,7 +11975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>62</v>
@@ -11990,7 +11992,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43862</v>
       </c>
@@ -12010,7 +12012,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43891</v>
       </c>
@@ -12032,7 +12034,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43922</v>
       </c>
@@ -12052,7 +12054,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43952</v>
       </c>
@@ -12072,7 +12074,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43983</v>
       </c>
@@ -12092,7 +12094,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44013</v>
       </c>
@@ -12118,7 +12120,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -12137,7 +12139,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -12156,7 +12158,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44044</v>
       </c>
@@ -12176,7 +12178,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44075</v>
       </c>
@@ -12196,7 +12198,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44105</v>
       </c>
@@ -12216,7 +12218,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44136</v>
       </c>
@@ -12236,7 +12238,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44166</v>
       </c>
@@ -12260,7 +12262,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="47" t="s">
         <v>65</v>
       </c>
@@ -12278,7 +12280,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44197</v>
       </c>
@@ -12298,7 +12300,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44228</v>
       </c>
@@ -12318,7 +12320,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44256</v>
       </c>
@@ -12338,7 +12340,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44287</v>
       </c>
@@ -12358,7 +12360,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44317</v>
       </c>
@@ -12378,7 +12380,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44348</v>
       </c>
@@ -12398,7 +12400,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44378</v>
       </c>
@@ -12418,7 +12420,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44409</v>
       </c>
@@ -12438,7 +12440,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44440</v>
       </c>
@@ -12458,7 +12460,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44470</v>
       </c>
@@ -12478,7 +12480,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44501</v>
       </c>
@@ -12498,7 +12500,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44531</v>
       </c>
@@ -12524,7 +12526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -12544,7 +12546,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="47" t="s">
         <v>69</v>
       </c>
@@ -12562,7 +12564,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44562</v>
       </c>
@@ -12582,7 +12584,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44593</v>
       </c>
@@ -12602,7 +12604,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44621</v>
       </c>
@@ -12622,7 +12624,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44652</v>
       </c>
@@ -12646,7 +12648,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44682</v>
       </c>
@@ -12666,7 +12668,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44713</v>
       </c>
@@ -12692,7 +12694,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>45</v>
@@ -12709,7 +12711,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44743</v>
       </c>
@@ -12735,7 +12737,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44774</v>
       </c>
@@ -12761,7 +12763,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>70</v>
@@ -12780,7 +12782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -12802,7 +12804,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44805</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44835</v>
       </c>
@@ -12854,7 +12856,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>74</v>
@@ -12876,7 +12878,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -12898,7 +12900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44866</v>
       </c>
@@ -12924,7 +12926,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44896</v>
       </c>
@@ -12944,7 +12946,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="47" t="s">
         <v>77</v>
       </c>
@@ -12962,7 +12964,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -12982,7 +12984,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44958</v>
       </c>
@@ -13006,7 +13008,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44986</v>
       </c>
@@ -13030,7 +13032,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>45017</v>
       </c>
@@ -13050,7 +13052,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45047</v>
       </c>
@@ -13074,11 +13076,13 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45078</v>
       </c>
-      <c r="B523" s="20"/>
+      <c r="B523" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
@@ -13087,12 +13091,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H523" s="39"/>
+      <c r="H523" s="39">
+        <v>1</v>
+      </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20"/>
-    </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K523" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45108</v>
       </c>
@@ -13110,7 +13118,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45139</v>
       </c>
@@ -13128,7 +13136,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45170</v>
       </c>
@@ -13146,7 +13154,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45200</v>
       </c>
@@ -13164,7 +13172,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45231</v>
       </c>
@@ -13182,7 +13190,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45261</v>
       </c>
@@ -13200,7 +13208,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13216,7 +13224,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13232,7 +13240,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13248,7 +13256,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13264,7 +13272,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13280,7 +13288,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13296,7 +13304,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13312,7 +13320,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13328,7 +13336,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13344,7 +13352,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13360,7 +13368,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13376,7 +13384,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13392,7 +13400,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13408,7 +13416,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13424,7 +13432,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13440,7 +13448,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13456,7 +13464,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13472,7 +13480,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13488,7 +13496,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13504,7 +13512,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13520,7 +13528,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13536,7 +13544,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13552,7 +13560,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13568,7 +13576,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13584,7 +13592,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13600,7 +13608,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13616,7 +13624,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13632,7 +13640,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13648,7 +13656,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13664,7 +13672,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13680,7 +13688,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13696,7 +13704,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13712,7 +13720,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -13728,7 +13736,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -13744,7 +13752,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -13760,7 +13768,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -13776,7 +13784,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -13792,7 +13800,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -13808,7 +13816,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -13824,7 +13832,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -13840,7 +13848,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -13856,7 +13864,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -13872,7 +13880,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="15"/>
       <c r="C572" s="41"/>
@@ -13903,10 +13911,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13929,41 +13937,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13992,7 +14000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.058</v>
       </c>
@@ -14022,18 +14030,18 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>239</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -14049,17 +14057,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>583.11400000000003</v>
+        <v>582.11400000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14087,7 +14095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14113,7 +14121,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14139,7 +14147,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14165,7 +14173,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14191,7 +14199,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14217,7 +14225,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14243,7 +14251,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14269,7 +14277,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14289,7 +14297,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14309,7 +14317,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14329,7 +14337,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14350,7 +14358,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14371,7 +14379,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14392,7 +14400,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14413,7 +14421,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14434,7 +14442,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14455,7 +14463,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14476,7 +14484,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14497,7 +14505,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14518,7 +14526,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14539,7 +14547,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14560,7 +14568,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14581,7 +14589,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14602,7 +14610,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14623,7 +14631,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14644,7 +14652,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14665,7 +14673,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14686,7 +14694,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14707,7 +14715,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14728,7 +14736,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14749,7 +14757,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14758,7 +14766,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14767,7 +14775,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14776,7 +14784,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14785,7 +14793,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14794,7 +14802,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14803,7 +14811,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14812,7 +14820,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14821,7 +14829,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14830,7 +14838,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14839,7 +14847,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14848,7 +14856,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14857,7 +14865,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14866,7 +14874,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14875,7 +14883,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14884,7 +14892,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14893,7 +14901,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14902,7 +14910,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14911,7 +14919,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14920,7 +14928,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14929,7 +14937,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14938,7 +14946,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14947,7 +14955,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14956,7 +14964,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14965,7 +14973,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14974,7 +14982,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14983,7 +14991,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14992,7 +15000,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15001,7 +15009,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15010,7 +15018,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/TORRES, SONIA.xlsx
+++ b/REGULAR/OJT/TORRES, SONIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B838B75-1CD0-4608-BE4D-0B8DAD5318D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -761,7 +762,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1428,7 +1429,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1445,25 +1446,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1770,34 +1771,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A511" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A511" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="K524" sqref="K524"/>
+      <selection pane="bottomLeft" activeCell="I514" sqref="I514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1819,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1837,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1858,7 +1859,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1866,7 +1867,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1879,7 +1880,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1896,7 +1897,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1950,12 +1951,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>319.5</v>
+        <v>318.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>78</v>
       </c>
@@ -1977,7 +1978,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34335</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>34347</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>103</v>
@@ -2025,7 +2026,7 @@
         <v>34354</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -2047,7 +2048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>34366</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>34367</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2093,7 +2094,7 @@
         <v>34380</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>34394</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>34422</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>74</v>
@@ -2141,7 +2142,7 @@
         <v>34395</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>105</v>
@@ -2161,7 +2162,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>34425</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>34449</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -2209,7 +2210,7 @@
         <v>34442</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>74</v>
@@ -2231,7 +2232,7 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>34455</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>34456</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>103</v>
@@ -2279,7 +2280,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>70</v>
@@ -2301,7 +2302,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -2323,7 +2324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>106</v>
@@ -2343,7 +2344,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>34486</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>34487</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>106</v>
@@ -2389,7 +2390,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>34516</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>34547</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>34578</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>34608</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>34631</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>103</v>
@@ -2501,7 +2502,7 @@
         <v>34634</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>34639</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>34654</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>103</v>
@@ -2549,7 +2550,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>34669</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>34689</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>103</v>
@@ -2597,7 +2598,7 @@
         <v>34691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>103</v>
@@ -2619,7 +2620,7 @@
         <v>34694</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>110</v>
@@ -2639,7 +2640,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>79</v>
       </c>
@@ -2657,7 +2658,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>34700</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -2705,7 +2706,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>103</v>
@@ -2727,7 +2728,7 @@
         <v>34718</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>112</v>
@@ -2747,7 +2748,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>34731</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>34754</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>34759</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>34782</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>116</v>
@@ -2819,7 +2820,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>34790</v>
       </c>
@@ -2839,7 +2840,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>34820</v>
       </c>
@@ -2859,7 +2860,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>34851</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>34866</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>117</v>
@@ -2905,7 +2906,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>34881</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>109</v>
@@ -2951,7 +2952,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>34912</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>34929</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>119</v>
@@ -2997,7 +2998,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>34943</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>48</v>
@@ -3043,7 +3044,7 @@
         <v>34967</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>34973</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>35004</v>
       </c>
@@ -3093,7 +3094,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>35034</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
@@ -3141,7 +3142,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>103</v>
@@ -3163,7 +3164,7 @@
         <v>35045</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>103</v>
@@ -3185,7 +3186,7 @@
         <v>35054</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>123</v>
@@ -3205,7 +3206,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>80</v>
       </c>
@@ -3223,7 +3224,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>35065</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>35096</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>35117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>103</v>
@@ -3295,7 +3296,7 @@
         <v>35123</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>35125</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>35151</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>35156</v>
       </c>
@@ -3341,7 +3342,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>35186</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>70</v>
@@ -3387,7 +3388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>35217</v>
       </c>
@@ -3407,7 +3408,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>35247</v>
       </c>
@@ -3431,7 +3432,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>35278</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>35293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>35309</v>
       </c>
@@ -3479,7 +3480,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>35339</v>
       </c>
@@ -3499,7 +3500,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>35370</v>
       </c>
@@ -3519,7 +3520,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>35400</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>35418</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>128</v>
@@ -3565,7 +3566,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>81</v>
       </c>
@@ -3583,7 +3584,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>35431</v>
       </c>
@@ -3607,7 +3608,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>35462</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>35490</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>129</v>
@@ -3673,7 +3674,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>35521</v>
       </c>
@@ -3693,7 +3694,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>35551</v>
       </c>
@@ -3713,7 +3714,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>35582</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -3759,7 +3760,7 @@
         <v>35583</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>35612</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -3807,7 +3808,7 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>35643</v>
       </c>
@@ -3829,7 +3830,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>35674</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>49</v>
@@ -3875,7 +3876,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>103</v>
@@ -3897,7 +3898,7 @@
         <v>35677</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>103</v>
@@ -3919,7 +3920,7 @@
         <v>35684</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -3941,7 +3942,7 @@
         <v>35696</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>132</v>
@@ -3961,7 +3962,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>35704</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>35734</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>103</v>
@@ -4009,7 +4010,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
@@ -4031,7 +4032,7 @@
         <v>35733</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>134</v>
@@ -4051,7 +4052,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>35735</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>35746</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>135</v>
@@ -4097,7 +4098,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>35765</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>35787</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>136</v>
@@ -4143,7 +4144,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="47" t="s">
         <v>82</v>
       </c>
@@ -4161,7 +4162,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>35796</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>138</v>
@@ -4207,7 +4208,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>35827</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>74</v>
@@ -4255,7 +4256,7 @@
         <v>35853</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>128</v>
@@ -4275,7 +4276,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>35855</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -4321,7 +4322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>142</v>
@@ -4341,7 +4342,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>35886</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
@@ -4389,7 +4390,7 @@
         <v>35905</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>144</v>
@@ -4409,7 +4410,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>35916</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>111</v>
@@ -4457,7 +4458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
@@ -4477,7 +4478,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>35947</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>45</v>
@@ -4523,7 +4524,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>45</v>
@@ -4543,7 +4544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>148</v>
@@ -4563,7 +4564,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>35977</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>36005</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
@@ -4609,7 +4610,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>36008</v>
       </c>
@@ -4633,7 +4634,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>36039</v>
       </c>
@@ -4657,7 +4658,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>36069</v>
       </c>
@@ -4677,7 +4678,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>36100</v>
       </c>
@@ -4701,7 +4702,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>36130</v>
       </c>
@@ -4725,7 +4726,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>83</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>36161</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>36181</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>155</v>
@@ -4789,7 +4790,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>36192</v>
       </c>
@@ -4813,7 +4814,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>36220</v>
       </c>
@@ -4837,7 +4838,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>36251</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>109</v>
@@ -4883,7 +4884,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>36281</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>111</v>
@@ -4931,7 +4932,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>159</v>
@@ -4951,7 +4952,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>36312</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>48</v>
@@ -4997,7 +4998,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>36342</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>36360</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>162</v>
@@ -5043,7 +5044,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>36373</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>36399</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>124</v>
@@ -5089,7 +5090,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>36404</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>36413</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -5137,7 +5138,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>124</v>
@@ -5157,7 +5158,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>36434</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>48</v>
@@ -5205,7 +5206,7 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>163</v>
@@ -5225,7 +5226,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>36465</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>36483</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -5271,7 +5272,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>36495</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>166</v>
@@ -5317,7 +5318,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>84</v>
       </c>
@@ -5335,7 +5336,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>36526</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>123</v>
@@ -5381,7 +5382,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>36557</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>36584</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>45</v>
@@ -5427,7 +5428,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>168</v>
@@ -5447,7 +5448,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>36586</v>
       </c>
@@ -5471,7 +5472,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>36617</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>36647</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -5541,7 +5542,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>172</v>
@@ -5561,7 +5562,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>36678</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5609,7 +5610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>173</v>
@@ -5629,7 +5630,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>36708</v>
       </c>
@@ -5653,7 +5654,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>36739</v>
       </c>
@@ -5677,7 +5678,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>36770</v>
       </c>
@@ -5701,7 +5702,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>36800</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>36825</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>177</v>
@@ -5747,7 +5748,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>36831</v>
       </c>
@@ -5771,7 +5772,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>36861</v>
       </c>
@@ -5795,7 +5796,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>178</v>
@@ -5815,7 +5816,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="47" t="s">
         <v>85</v>
       </c>
@@ -5833,7 +5834,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>36892</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -5879,7 +5880,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>179</v>
@@ -5899,7 +5900,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>36923</v>
       </c>
@@ -5923,7 +5924,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>36951</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
@@ -5969,7 +5970,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>36982</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>183</v>
@@ -6015,7 +6016,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>37012</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -6063,7 +6064,7 @@
         <v>37026</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>70</v>
@@ -6085,7 +6086,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>185</v>
@@ -6105,7 +6106,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <v>37043</v>
       </c>
@@ -6129,7 +6130,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>37073</v>
       </c>
@@ -6153,7 +6154,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>37104</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>37118</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>159</v>
@@ -6199,7 +6200,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="48"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>37135</v>
       </c>
@@ -6223,7 +6224,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>37165</v>
       </c>
@@ -6247,7 +6248,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>37196</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>45</v>
@@ -6293,7 +6294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>119</v>
@@ -6313,7 +6314,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>37226</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>37240</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>195</v>
@@ -6359,7 +6360,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="48"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>86</v>
       </c>
@@ -6377,7 +6378,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>37257</v>
       </c>
@@ -6401,7 +6402,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>37288</v>
       </c>
@@ -6425,7 +6426,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <v>37316</v>
       </c>
@@ -6449,7 +6450,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <v>37347</v>
       </c>
@@ -6473,7 +6474,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>37377</v>
       </c>
@@ -6497,7 +6498,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>37408</v>
       </c>
@@ -6521,7 +6522,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>37438</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>37455</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>198</v>
@@ -6567,7 +6568,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="48"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>37469</v>
       </c>
@@ -6587,7 +6588,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>37500</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>49</v>
@@ -6635,7 +6636,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>37530</v>
       </c>
@@ -6659,7 +6660,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>37561</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>155</v>
@@ -6705,7 +6706,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>37591</v>
       </c>
@@ -6729,7 +6730,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>87</v>
       </c>
@@ -6747,7 +6748,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>37622</v>
       </c>
@@ -6771,7 +6772,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <v>37653</v>
       </c>
@@ -6791,7 +6792,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>37681</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -6835,7 +6836,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>37712</v>
       </c>
@@ -6855,7 +6856,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>37742</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>37773</v>
       </c>
@@ -6905,7 +6906,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>37803</v>
       </c>
@@ -6929,7 +6930,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>37834</v>
       </c>
@@ -6953,7 +6954,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>37865</v>
       </c>
@@ -6977,7 +6978,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <v>37895</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>37917</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>45</v>
@@ -7023,7 +7024,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>168</v>
@@ -7043,7 +7044,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="48"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>37926</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>112</v>
@@ -7089,7 +7090,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>37956</v>
       </c>
@@ -7113,7 +7114,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>211</v>
@@ -7133,7 +7134,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="47" t="s">
         <v>88</v>
       </c>
@@ -7151,7 +7152,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>37987</v>
       </c>
@@ -7171,7 +7172,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <v>38018</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>38043</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>212</v>
@@ -7217,7 +7218,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <v>38047</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>191</v>
@@ -7263,7 +7264,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>38078</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
@@ -7311,7 +7312,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>214</v>
@@ -7331,7 +7332,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <v>38108</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -7379,7 +7380,7 @@
         <v>38128</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>217</v>
@@ -7399,7 +7400,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>38139</v>
       </c>
@@ -7423,7 +7424,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>38169</v>
       </c>
@@ -7449,7 +7450,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>38200</v>
       </c>
@@ -7473,7 +7474,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>38231</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>221</v>
@@ -7517,7 +7518,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>38261</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
@@ -7561,7 +7562,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>38292</v>
       </c>
@@ -7585,7 +7586,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>38322</v>
       </c>
@@ -7609,7 +7610,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="47" t="s">
         <v>89</v>
       </c>
@@ -7627,7 +7628,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>38353</v>
       </c>
@@ -7651,7 +7652,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>38384</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>156</v>
@@ -7697,7 +7698,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="48"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>38412</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>227</v>
@@ -7743,7 +7744,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>38443</v>
       </c>
@@ -7767,7 +7768,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>38473</v>
       </c>
@@ -7791,7 +7792,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -7811,7 +7812,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>38504</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>105</v>
@@ -7857,7 +7858,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>38534</v>
       </c>
@@ -7881,7 +7882,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <v>38565</v>
       </c>
@@ -7905,7 +7906,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>38596</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>45</v>
@@ -7951,7 +7952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>234</v>
@@ -7971,7 +7972,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>38626</v>
       </c>
@@ -7997,7 +7998,7 @@
         <v>38642</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>64</v>
@@ -8017,7 +8018,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>236</v>
@@ -8037,7 +8038,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="48"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>38657</v>
       </c>
@@ -8061,7 +8062,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>38687</v>
       </c>
@@ -8085,7 +8086,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="47" t="s">
         <v>90</v>
       </c>
@@ -8103,7 +8104,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>38718</v>
       </c>
@@ -8123,7 +8124,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <v>38749</v>
       </c>
@@ -8143,7 +8144,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <v>38777</v>
       </c>
@@ -8163,7 +8164,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <v>38808</v>
       </c>
@@ -8183,7 +8184,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <v>38838</v>
       </c>
@@ -8203,7 +8204,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>38869</v>
       </c>
@@ -8223,7 +8224,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <v>38899</v>
       </c>
@@ -8243,7 +8244,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>38930</v>
       </c>
@@ -8263,7 +8264,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <v>38961</v>
       </c>
@@ -8283,7 +8284,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>38991</v>
       </c>
@@ -8303,7 +8304,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>39022</v>
       </c>
@@ -8323,7 +8324,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <v>39052</v>
       </c>
@@ -8347,7 +8348,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="47" t="s">
         <v>91</v>
       </c>
@@ -8365,7 +8366,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <v>39083</v>
       </c>
@@ -8385,7 +8386,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>39114</v>
       </c>
@@ -8405,7 +8406,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>39142</v>
       </c>
@@ -8425,7 +8426,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>39173</v>
       </c>
@@ -8445,7 +8446,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <v>39203</v>
       </c>
@@ -8465,7 +8466,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>39234</v>
       </c>
@@ -8485,7 +8486,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>39264</v>
       </c>
@@ -8505,7 +8506,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>39295</v>
       </c>
@@ -8525,7 +8526,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>39326</v>
       </c>
@@ -8545,7 +8546,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <v>39356</v>
       </c>
@@ -8565,7 +8566,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>39387</v>
       </c>
@@ -8585,7 +8586,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>39417</v>
       </c>
@@ -8609,7 +8610,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="47" t="s">
         <v>92</v>
       </c>
@@ -8627,7 +8628,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>39448</v>
       </c>
@@ -8647,7 +8648,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>39479</v>
       </c>
@@ -8667,7 +8668,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>39508</v>
       </c>
@@ -8687,7 +8688,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>39539</v>
       </c>
@@ -8707,7 +8708,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>39569</v>
       </c>
@@ -8727,7 +8728,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <v>39600</v>
       </c>
@@ -8747,7 +8748,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <v>39630</v>
       </c>
@@ -8767,7 +8768,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>39661</v>
       </c>
@@ -8787,7 +8788,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>39692</v>
       </c>
@@ -8807,7 +8808,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <v>39722</v>
       </c>
@@ -8827,7 +8828,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <v>39753</v>
       </c>
@@ -8847,7 +8848,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <v>39783</v>
       </c>
@@ -8871,7 +8872,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="47" t="s">
         <v>93</v>
       </c>
@@ -8889,7 +8890,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>39814</v>
       </c>
@@ -8909,7 +8910,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>39845</v>
       </c>
@@ -8929,7 +8930,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <v>39873</v>
       </c>
@@ -8949,7 +8950,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>39904</v>
       </c>
@@ -8969,7 +8970,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <v>39934</v>
       </c>
@@ -8989,7 +8990,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <v>39965</v>
       </c>
@@ -9009,7 +9010,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <v>39995</v>
       </c>
@@ -9029,7 +9030,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>40026</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>40057</v>
       </c>
@@ -9069,7 +9070,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>40087</v>
       </c>
@@ -9089,7 +9090,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <v>40118</v>
       </c>
@@ -9109,7 +9110,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <v>40148</v>
       </c>
@@ -9133,7 +9134,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="47" t="s">
         <v>94</v>
       </c>
@@ -9151,7 +9152,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>40179</v>
       </c>
@@ -9171,7 +9172,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>40210</v>
       </c>
@@ -9191,7 +9192,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <v>40238</v>
       </c>
@@ -9211,7 +9212,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <v>40269</v>
       </c>
@@ -9231,7 +9232,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>40299</v>
       </c>
@@ -9251,7 +9252,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>40330</v>
       </c>
@@ -9271,7 +9272,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <v>40360</v>
       </c>
@@ -9291,7 +9292,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>40391</v>
       </c>
@@ -9311,7 +9312,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>40422</v>
       </c>
@@ -9331,7 +9332,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>40452</v>
       </c>
@@ -9351,7 +9352,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>40483</v>
       </c>
@@ -9371,7 +9372,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <v>40513</v>
       </c>
@@ -9395,7 +9396,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="47" t="s">
         <v>95</v>
       </c>
@@ -9413,7 +9414,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <v>40544</v>
       </c>
@@ -9433,7 +9434,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>40575</v>
       </c>
@@ -9453,7 +9454,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>40603</v>
       </c>
@@ -9473,7 +9474,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>40634</v>
       </c>
@@ -9493,7 +9494,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>40664</v>
       </c>
@@ -9513,7 +9514,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <v>40695</v>
       </c>
@@ -9533,7 +9534,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <v>40725</v>
       </c>
@@ -9553,7 +9554,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <v>40756</v>
       </c>
@@ -9573,7 +9574,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <v>40787</v>
       </c>
@@ -9593,7 +9594,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>40817</v>
       </c>
@@ -9613,7 +9614,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <v>40848</v>
       </c>
@@ -9633,7 +9634,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <v>40878</v>
       </c>
@@ -9657,7 +9658,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="47" t="s">
         <v>96</v>
       </c>
@@ -9675,7 +9676,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>40909</v>
       </c>
@@ -9695,7 +9696,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <v>40940</v>
       </c>
@@ -9715,7 +9716,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <v>40969</v>
       </c>
@@ -9735,7 +9736,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <v>41000</v>
       </c>
@@ -9755,7 +9756,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <v>41030</v>
       </c>
@@ -9775,7 +9776,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <v>41061</v>
       </c>
@@ -9795,7 +9796,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <v>41091</v>
       </c>
@@ -9815,7 +9816,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <v>41122</v>
       </c>
@@ -9835,7 +9836,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <v>41153</v>
       </c>
@@ -9855,7 +9856,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <v>41183</v>
       </c>
@@ -9875,7 +9876,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <v>41214</v>
       </c>
@@ -9895,7 +9896,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <v>41244</v>
       </c>
@@ -9919,7 +9920,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="47" t="s">
         <v>97</v>
       </c>
@@ -9937,7 +9938,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <v>41275</v>
       </c>
@@ -9957,7 +9958,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <v>41306</v>
       </c>
@@ -9977,7 +9978,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <v>41334</v>
       </c>
@@ -9997,7 +9998,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <v>41365</v>
       </c>
@@ -10017,7 +10018,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <v>41395</v>
       </c>
@@ -10037,7 +10038,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23">
         <v>41426</v>
       </c>
@@ -10057,7 +10058,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <v>41456</v>
       </c>
@@ -10077,7 +10078,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <v>41487</v>
       </c>
@@ -10097,7 +10098,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
         <v>41518</v>
       </c>
@@ -10117,7 +10118,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <v>41548</v>
       </c>
@@ -10137,7 +10138,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <v>41579</v>
       </c>
@@ -10157,7 +10158,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <v>41609</v>
       </c>
@@ -10181,7 +10182,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="47" t="s">
         <v>98</v>
       </c>
@@ -10199,7 +10200,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <v>41640</v>
       </c>
@@ -10219,7 +10220,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>41671</v>
       </c>
@@ -10239,7 +10240,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <v>41699</v>
       </c>
@@ -10259,7 +10260,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <v>41730</v>
       </c>
@@ -10279,7 +10280,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <v>41760</v>
       </c>
@@ -10299,7 +10300,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <v>41791</v>
       </c>
@@ -10319,7 +10320,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <v>41821</v>
       </c>
@@ -10339,7 +10340,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <v>41852</v>
       </c>
@@ -10359,7 +10360,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <v>41883</v>
       </c>
@@ -10379,7 +10380,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <v>41913</v>
       </c>
@@ -10399,7 +10400,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <v>41944</v>
       </c>
@@ -10419,7 +10420,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <v>41974</v>
       </c>
@@ -10443,7 +10444,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="47" t="s">
         <v>99</v>
       </c>
@@ -10461,7 +10462,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <v>42005</v>
       </c>
@@ -10481,7 +10482,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <v>42036</v>
       </c>
@@ -10501,7 +10502,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <v>42064</v>
       </c>
@@ -10521,7 +10522,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <v>42095</v>
       </c>
@@ -10541,7 +10542,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <v>42125</v>
       </c>
@@ -10561,7 +10562,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <v>42156</v>
       </c>
@@ -10581,7 +10582,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>42186</v>
       </c>
@@ -10601,7 +10602,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <v>42217</v>
       </c>
@@ -10621,7 +10622,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <v>42248</v>
       </c>
@@ -10641,7 +10642,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <v>42278</v>
       </c>
@@ -10661,7 +10662,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <v>42309</v>
       </c>
@@ -10681,7 +10682,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <v>42339</v>
       </c>
@@ -10705,7 +10706,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="47" t="s">
         <v>100</v>
       </c>
@@ -10723,7 +10724,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <v>42370</v>
       </c>
@@ -10743,7 +10744,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <v>42401</v>
       </c>
@@ -10763,7 +10764,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <v>42430</v>
       </c>
@@ -10783,7 +10784,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <v>42461</v>
       </c>
@@ -10803,7 +10804,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <v>42491</v>
       </c>
@@ -10823,7 +10824,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <v>42522</v>
       </c>
@@ -10843,7 +10844,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <v>42552</v>
       </c>
@@ -10863,7 +10864,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <v>42583</v>
       </c>
@@ -10883,7 +10884,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <v>42614</v>
       </c>
@@ -10903,7 +10904,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <v>42644</v>
       </c>
@@ -10923,7 +10924,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <v>42675</v>
       </c>
@@ -10943,7 +10944,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <v>42705</v>
       </c>
@@ -10967,7 +10968,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="47" t="s">
         <v>101</v>
       </c>
@@ -10985,7 +10986,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23">
         <v>42736</v>
       </c>
@@ -11005,7 +11006,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <v>42767</v>
       </c>
@@ -11025,7 +11026,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <v>42795</v>
       </c>
@@ -11045,7 +11046,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <v>42826</v>
       </c>
@@ -11065,7 +11066,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <v>42856</v>
       </c>
@@ -11085,7 +11086,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <v>42887</v>
       </c>
@@ -11105,7 +11106,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <v>42917</v>
       </c>
@@ -11125,7 +11126,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <v>42948</v>
       </c>
@@ -11145,7 +11146,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <v>42979</v>
       </c>
@@ -11165,7 +11166,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <v>43009</v>
       </c>
@@ -11185,7 +11186,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23">
         <v>43040</v>
       </c>
@@ -11205,7 +11206,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23">
         <v>43070</v>
       </c>
@@ -11229,7 +11230,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="47" t="s">
         <v>44</v>
       </c>
@@ -11247,7 +11248,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43101</v>
       </c>
@@ -11267,7 +11268,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43132</v>
       </c>
@@ -11287,7 +11288,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43160</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43191</v>
       </c>
@@ -11331,7 +11332,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43221</v>
       </c>
@@ -11351,7 +11352,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43252</v>
       </c>
@@ -11371,7 +11372,7 @@
       <c r="J443" s="12"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43282</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43313</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43344</v>
       </c>
@@ -11441,7 +11442,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43374</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -11484,7 +11485,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -11503,7 +11504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43405</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43435</v>
       </c>
@@ -11555,7 +11556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -11574,7 +11575,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="47" t="s">
         <v>46</v>
       </c>
@@ -11592,7 +11593,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43466</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43497</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>43525</v>
       </c>
@@ -11662,7 +11663,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43556</v>
       </c>
@@ -11682,7 +11683,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43586</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -11727,7 +11728,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43617</v>
       </c>
@@ -11747,7 +11748,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43647</v>
       </c>
@@ -11767,7 +11768,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43678</v>
       </c>
@@ -11791,7 +11792,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43709</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>47</v>
@@ -11836,7 +11837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>48</v>
@@ -11855,7 +11856,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43739</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43770</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43800</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="47" t="s">
         <v>60</v>
       </c>
@@ -11951,7 +11952,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43831</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>62</v>
@@ -11992,7 +11993,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43862</v>
       </c>
@@ -12012,7 +12013,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43891</v>
       </c>
@@ -12034,7 +12035,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43922</v>
       </c>
@@ -12054,7 +12055,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43952</v>
       </c>
@@ -12074,7 +12075,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43983</v>
       </c>
@@ -12094,7 +12095,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44013</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -12139,7 +12140,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -12158,7 +12159,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44044</v>
       </c>
@@ -12178,7 +12179,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44075</v>
       </c>
@@ -12198,7 +12199,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44105</v>
       </c>
@@ -12218,7 +12219,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44136</v>
       </c>
@@ -12238,7 +12239,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44166</v>
       </c>
@@ -12262,7 +12263,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="47" t="s">
         <v>65</v>
       </c>
@@ -12280,7 +12281,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44197</v>
       </c>
@@ -12300,7 +12301,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44228</v>
       </c>
@@ -12320,7 +12321,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44256</v>
       </c>
@@ -12340,7 +12341,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44287</v>
       </c>
@@ -12360,7 +12361,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44317</v>
       </c>
@@ -12380,7 +12381,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44348</v>
       </c>
@@ -12400,7 +12401,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44378</v>
       </c>
@@ -12420,7 +12421,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44409</v>
       </c>
@@ -12440,7 +12441,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44440</v>
       </c>
@@ -12460,7 +12461,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44470</v>
       </c>
@@ -12480,7 +12481,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44501</v>
       </c>
@@ -12500,7 +12501,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44531</v>
       </c>
@@ -12526,7 +12527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -12546,7 +12547,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="47" t="s">
         <v>69</v>
       </c>
@@ -12564,7 +12565,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44562</v>
       </c>
@@ -12584,7 +12585,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44593</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44621</v>
       </c>
@@ -12624,7 +12625,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44652</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44682</v>
       </c>
@@ -12668,7 +12669,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>44713</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>45</v>
@@ -12711,7 +12712,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>44743</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44774</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>70</v>
@@ -12782,7 +12783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -12804,7 +12805,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44805</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44835</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>74</v>
@@ -12878,7 +12879,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -12900,7 +12901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44866</v>
       </c>
@@ -12926,7 +12927,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44896</v>
       </c>
@@ -12946,7 +12947,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="47" t="s">
         <v>77</v>
       </c>
@@ -12964,7 +12965,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -12984,7 +12985,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44958</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44986</v>
       </c>
@@ -13032,7 +13033,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>45017</v>
       </c>
@@ -13052,7 +13053,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>45047</v>
       </c>
@@ -13076,12 +13077,12 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>45078</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
@@ -13092,7 +13093,7 @@
         <v/>
       </c>
       <c r="H523" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
@@ -13100,7 +13101,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>45108</v>
       </c>
@@ -13118,7 +13119,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>45139</v>
       </c>
@@ -13136,7 +13137,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45170</v>
       </c>
@@ -13154,7 +13155,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>45200</v>
       </c>
@@ -13172,7 +13173,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45231</v>
       </c>
@@ -13190,7 +13191,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45261</v>
       </c>
@@ -13208,7 +13209,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13224,7 +13225,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13240,7 +13241,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13256,7 +13257,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13272,7 +13273,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13288,7 +13289,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13304,7 +13305,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13320,7 +13321,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13336,7 +13337,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13352,7 +13353,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13368,7 +13369,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13384,7 +13385,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13400,7 +13401,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13416,7 +13417,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13432,7 +13433,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13448,7 +13449,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13464,7 +13465,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13480,7 +13481,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13496,7 +13497,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13512,7 +13513,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13528,7 +13529,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13544,7 +13545,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13560,7 +13561,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13576,7 +13577,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13592,7 +13593,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13608,7 +13609,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13624,7 +13625,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13640,7 +13641,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13656,7 +13657,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13672,7 +13673,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13688,7 +13689,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13704,7 +13705,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13720,7 +13721,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -13736,7 +13737,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -13752,7 +13753,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -13768,7 +13769,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -13784,7 +13785,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -13800,7 +13801,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -13816,7 +13817,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -13832,7 +13833,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -13848,7 +13849,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -13864,7 +13865,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -13880,7 +13881,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="15"/>
       <c r="C572" s="41"/>
@@ -13911,10 +13912,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13937,28 +13938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -13971,7 +13972,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>11.058</v>
       </c>
@@ -14030,17 +14031,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>239</v>
       </c>
@@ -14064,10 +14065,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>582.11400000000003</v>
+        <v>581.11400000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14095,7 +14096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14173,7 +14174,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14251,7 +14252,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14297,7 +14298,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14379,7 +14380,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14421,7 +14422,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14484,7 +14485,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14526,7 +14527,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14547,7 +14548,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14589,7 +14590,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14610,7 +14611,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14631,7 +14632,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14673,7 +14674,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14715,7 +14716,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14757,7 +14758,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14775,7 +14776,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14784,7 +14785,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14793,7 +14794,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14802,7 +14803,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14811,7 +14812,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14820,7 +14821,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14829,7 +14830,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14838,7 +14839,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14847,7 +14848,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14865,7 +14866,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14874,7 +14875,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14883,7 +14884,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14892,7 +14893,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14901,7 +14902,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14910,7 +14911,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14919,7 +14920,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14928,7 +14929,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14937,7 +14938,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14955,7 +14956,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14964,7 +14965,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14973,7 +14974,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14982,7 +14983,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14991,7 +14992,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15000,7 +15001,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15009,7 +15010,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15018,7 +15019,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/TORRES, SONIA.xlsx
+++ b/REGULAR/OJT/TORRES, SONIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B838B75-1CD0-4608-BE4D-0B8DAD5318D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="242">
   <si>
     <t>PERIOD</t>
   </si>
@@ -757,12 +756,15 @@
   </si>
   <si>
     <t>6/8-9/2023</t>
+  </si>
+  <si>
+    <t>7/7,10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1429,7 +1431,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1446,25 +1448,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1771,34 +1773,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A511" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A511" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="I514" sqref="I514"/>
+      <selection pane="bottomLeft" activeCell="I524" sqref="I524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +1821,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1839,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1859,7 +1861,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1867,7 +1869,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1880,7 +1882,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1897,7 +1899,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1941,7 +1943,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>262.61399999999998</v>
+        <v>265.11399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1951,12 +1953,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>318.5</v>
+        <v>319</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>78</v>
       </c>
@@ -1978,7 +1980,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34335</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>34347</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>103</v>
@@ -2026,7 +2028,7 @@
         <v>34354</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -2048,7 +2050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>34366</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>34367</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2094,7 +2096,7 @@
         <v>34380</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>34394</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>34422</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>74</v>
@@ -2142,7 +2144,7 @@
         <v>34395</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>105</v>
@@ -2162,7 +2164,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>34425</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>34449</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -2210,7 +2212,7 @@
         <v>34442</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>74</v>
@@ -2232,7 +2234,7 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34455</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>34456</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>103</v>
@@ -2280,7 +2282,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>70</v>
@@ -2302,7 +2304,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -2324,7 +2326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>106</v>
@@ -2344,7 +2346,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>34486</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>34487</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>106</v>
@@ -2390,7 +2392,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34516</v>
       </c>
@@ -2414,7 +2416,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34547</v>
       </c>
@@ -2434,7 +2436,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34578</v>
       </c>
@@ -2454,7 +2456,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>34608</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>34631</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>103</v>
@@ -2502,7 +2504,7 @@
         <v>34634</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34639</v>
       </c>
@@ -2528,7 +2530,7 @@
         <v>34654</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>103</v>
@@ -2550,7 +2552,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>34669</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>34689</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>103</v>
@@ -2598,7 +2600,7 @@
         <v>34691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>103</v>
@@ -2620,7 +2622,7 @@
         <v>34694</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>110</v>
@@ -2640,7 +2642,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>79</v>
       </c>
@@ -2658,7 +2660,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>34700</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -2706,7 +2708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>103</v>
@@ -2728,7 +2730,7 @@
         <v>34718</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>112</v>
@@ -2748,7 +2750,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>34731</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>34754</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>34759</v>
       </c>
@@ -2800,7 +2802,7 @@
         <v>34782</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>116</v>
@@ -2820,7 +2822,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>34790</v>
       </c>
@@ -2840,7 +2842,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>34820</v>
       </c>
@@ -2860,7 +2862,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>34851</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>34866</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>117</v>
@@ -2906,7 +2908,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>34881</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>109</v>
@@ -2952,7 +2954,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>34912</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>34929</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>119</v>
@@ -2998,7 +3000,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>34943</v>
       </c>
@@ -3022,7 +3024,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>48</v>
@@ -3044,7 +3046,7 @@
         <v>34967</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>34973</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35004</v>
       </c>
@@ -3094,7 +3096,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>35034</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
@@ -3142,7 +3144,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>103</v>
@@ -3164,7 +3166,7 @@
         <v>35045</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>103</v>
@@ -3186,7 +3188,7 @@
         <v>35054</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>123</v>
@@ -3206,7 +3208,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>80</v>
       </c>
@@ -3224,7 +3226,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35065</v>
       </c>
@@ -3248,7 +3250,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>35096</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>35117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>103</v>
@@ -3296,7 +3298,7 @@
         <v>35123</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>35125</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>35151</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>35156</v>
       </c>
@@ -3342,7 +3344,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>35186</v>
       </c>
@@ -3366,7 +3368,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>70</v>
@@ -3388,7 +3390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>35217</v>
       </c>
@@ -3408,7 +3410,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>35247</v>
       </c>
@@ -3432,7 +3434,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>35278</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>35293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>35309</v>
       </c>
@@ -3480,7 +3482,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>35339</v>
       </c>
@@ -3500,7 +3502,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>35370</v>
       </c>
@@ -3520,7 +3522,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>35400</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>35418</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>128</v>
@@ -3566,7 +3568,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>81</v>
       </c>
@@ -3584,7 +3586,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>35431</v>
       </c>
@@ -3608,7 +3610,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>35462</v>
       </c>
@@ -3628,7 +3630,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>35490</v>
       </c>
@@ -3654,7 +3656,7 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>129</v>
@@ -3674,7 +3676,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>35521</v>
       </c>
@@ -3694,7 +3696,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>35551</v>
       </c>
@@ -3714,7 +3716,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>35582</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -3760,7 +3762,7 @@
         <v>35583</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>35612</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -3808,7 +3810,7 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>35643</v>
       </c>
@@ -3830,7 +3832,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>35674</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>49</v>
@@ -3876,7 +3878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>103</v>
@@ -3898,7 +3900,7 @@
         <v>35677</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>103</v>
@@ -3920,7 +3922,7 @@
         <v>35684</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -3942,7 +3944,7 @@
         <v>35696</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>132</v>
@@ -3962,7 +3964,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>35704</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>35734</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>103</v>
@@ -4010,7 +4012,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
@@ -4032,7 +4034,7 @@
         <v>35733</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>134</v>
@@ -4052,7 +4054,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>35735</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>35746</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>135</v>
@@ -4098,7 +4100,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>35765</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>35787</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>136</v>
@@ -4144,7 +4146,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>82</v>
       </c>
@@ -4162,7 +4164,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>35796</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>138</v>
@@ -4208,7 +4210,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>35827</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>74</v>
@@ -4256,7 +4258,7 @@
         <v>35853</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>128</v>
@@ -4276,7 +4278,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>35855</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -4322,7 +4324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>142</v>
@@ -4342,7 +4344,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>35886</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
@@ -4390,7 +4392,7 @@
         <v>35905</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>144</v>
@@ -4410,7 +4412,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>35916</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>111</v>
@@ -4458,7 +4460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
@@ -4478,7 +4480,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>35947</v>
       </c>
@@ -4504,7 +4506,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>45</v>
@@ -4524,7 +4526,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>45</v>
@@ -4544,7 +4546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>148</v>
@@ -4564,7 +4566,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>35977</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>36005</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
@@ -4610,7 +4612,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>36008</v>
       </c>
@@ -4634,7 +4636,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>36039</v>
       </c>
@@ -4658,7 +4660,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>36069</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>36100</v>
       </c>
@@ -4702,7 +4704,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>36130</v>
       </c>
@@ -4726,7 +4728,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>83</v>
       </c>
@@ -4744,7 +4746,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>36161</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>36181</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>155</v>
@@ -4790,7 +4792,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>36192</v>
       </c>
@@ -4814,7 +4816,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>36220</v>
       </c>
@@ -4838,7 +4840,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>36251</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>109</v>
@@ -4884,7 +4886,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>36281</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>111</v>
@@ -4932,7 +4934,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>159</v>
@@ -4952,7 +4954,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>36312</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>48</v>
@@ -4998,7 +5000,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>36342</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>36360</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>162</v>
@@ -5044,7 +5046,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>36373</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>36399</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>124</v>
@@ -5090,7 +5092,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>36404</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>36413</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -5138,7 +5140,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>124</v>
@@ -5158,7 +5160,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>36434</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>48</v>
@@ -5206,7 +5208,7 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>163</v>
@@ -5226,7 +5228,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>36465</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>36483</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -5272,7 +5274,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>36495</v>
       </c>
@@ -5298,7 +5300,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>166</v>
@@ -5318,7 +5320,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>84</v>
       </c>
@@ -5336,7 +5338,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>36526</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>123</v>
@@ -5382,7 +5384,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>36557</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>36584</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>45</v>
@@ -5428,7 +5430,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>168</v>
@@ -5448,7 +5450,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>36586</v>
       </c>
@@ -5472,7 +5474,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>36617</v>
       </c>
@@ -5496,7 +5498,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>36647</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -5542,7 +5544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>172</v>
@@ -5562,7 +5564,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>36678</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5610,7 +5612,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>173</v>
@@ -5630,7 +5632,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>36708</v>
       </c>
@@ -5654,7 +5656,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>36739</v>
       </c>
@@ -5678,7 +5680,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>36770</v>
       </c>
@@ -5702,7 +5704,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>36800</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>36825</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>177</v>
@@ -5748,7 +5750,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>36831</v>
       </c>
@@ -5772,7 +5774,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>36861</v>
       </c>
@@ -5796,7 +5798,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>178</v>
@@ -5816,7 +5818,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>85</v>
       </c>
@@ -5834,7 +5836,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>36892</v>
       </c>
@@ -5860,7 +5862,7 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -5880,7 +5882,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>179</v>
@@ -5900,7 +5902,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>36923</v>
       </c>
@@ -5924,7 +5926,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>36951</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
@@ -5970,7 +5972,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>36982</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>183</v>
@@ -6016,7 +6018,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>37012</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
@@ -6064,7 +6066,7 @@
         <v>37026</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>70</v>
@@ -6086,7 +6088,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>185</v>
@@ -6106,7 +6108,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>37043</v>
       </c>
@@ -6130,7 +6132,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>37073</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>37104</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>37118</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>159</v>
@@ -6200,7 +6202,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="48"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>37135</v>
       </c>
@@ -6224,7 +6226,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>37165</v>
       </c>
@@ -6248,7 +6250,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>37196</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>45</v>
@@ -6294,7 +6296,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>119</v>
@@ -6314,7 +6316,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>37226</v>
       </c>
@@ -6340,7 +6342,7 @@
         <v>37240</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>195</v>
@@ -6360,7 +6362,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="48"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>86</v>
       </c>
@@ -6378,7 +6380,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>37257</v>
       </c>
@@ -6402,7 +6404,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>37288</v>
       </c>
@@ -6426,7 +6428,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>37316</v>
       </c>
@@ -6450,7 +6452,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>37347</v>
       </c>
@@ -6474,7 +6476,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>37377</v>
       </c>
@@ -6498,7 +6500,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>37408</v>
       </c>
@@ -6522,7 +6524,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>37438</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>37455</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>198</v>
@@ -6568,7 +6570,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="48"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>37469</v>
       </c>
@@ -6588,7 +6590,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>37500</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>49</v>
@@ -6636,7 +6638,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>37530</v>
       </c>
@@ -6660,7 +6662,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>37561</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>155</v>
@@ -6706,7 +6708,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>37591</v>
       </c>
@@ -6730,7 +6732,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
         <v>87</v>
       </c>
@@ -6748,7 +6750,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>37622</v>
       </c>
@@ -6772,7 +6774,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>37653</v>
       </c>
@@ -6792,7 +6794,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>37681</v>
       </c>
@@ -6816,7 +6818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -6836,7 +6838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>37712</v>
       </c>
@@ -6856,7 +6858,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>37742</v>
       </c>
@@ -6882,7 +6884,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>37773</v>
       </c>
@@ -6906,7 +6908,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>37803</v>
       </c>
@@ -6930,7 +6932,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>37834</v>
       </c>
@@ -6954,7 +6956,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>37865</v>
       </c>
@@ -6978,7 +6980,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>37895</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>37917</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>45</v>
@@ -7024,7 +7026,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>168</v>
@@ -7044,7 +7046,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="48"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>37926</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>112</v>
@@ -7090,7 +7092,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>37956</v>
       </c>
@@ -7114,7 +7116,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>211</v>
@@ -7134,7 +7136,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="47" t="s">
         <v>88</v>
       </c>
@@ -7152,7 +7154,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>37987</v>
       </c>
@@ -7172,7 +7174,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>38018</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>38043</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>212</v>
@@ -7218,7 +7220,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>38047</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>191</v>
@@ -7264,7 +7266,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>38078</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
@@ -7312,7 +7314,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>214</v>
@@ -7332,7 +7334,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>38108</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -7380,7 +7382,7 @@
         <v>38128</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>217</v>
@@ -7400,7 +7402,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>38139</v>
       </c>
@@ -7424,7 +7426,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>38169</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>38200</v>
       </c>
@@ -7474,7 +7476,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>38231</v>
       </c>
@@ -7498,7 +7500,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>221</v>
@@ -7518,7 +7520,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>38261</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
@@ -7562,7 +7564,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>38292</v>
       </c>
@@ -7586,7 +7588,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>38322</v>
       </c>
@@ -7610,7 +7612,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="47" t="s">
         <v>89</v>
       </c>
@@ -7628,7 +7630,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>38353</v>
       </c>
@@ -7652,7 +7654,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>38384</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>156</v>
@@ -7698,7 +7700,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="48"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>38412</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>227</v>
@@ -7744,7 +7746,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>38443</v>
       </c>
@@ -7768,7 +7770,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>38473</v>
       </c>
@@ -7792,7 +7794,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -7812,7 +7814,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>38504</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>105</v>
@@ -7858,7 +7860,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>38534</v>
       </c>
@@ -7882,7 +7884,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>38565</v>
       </c>
@@ -7906,7 +7908,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>38596</v>
       </c>
@@ -7932,7 +7934,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>45</v>
@@ -7952,7 +7954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>234</v>
@@ -7972,7 +7974,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>38626</v>
       </c>
@@ -7998,7 +8000,7 @@
         <v>38642</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>64</v>
@@ -8018,7 +8020,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>236</v>
@@ -8038,7 +8040,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="48"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>38657</v>
       </c>
@@ -8062,7 +8064,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>38687</v>
       </c>
@@ -8086,7 +8088,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="47" t="s">
         <v>90</v>
       </c>
@@ -8104,7 +8106,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>38718</v>
       </c>
@@ -8124,7 +8126,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>38749</v>
       </c>
@@ -8144,7 +8146,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>38777</v>
       </c>
@@ -8164,7 +8166,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>38808</v>
       </c>
@@ -8184,7 +8186,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>38838</v>
       </c>
@@ -8204,7 +8206,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>38869</v>
       </c>
@@ -8224,7 +8226,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>38899</v>
       </c>
@@ -8244,7 +8246,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>38930</v>
       </c>
@@ -8264,7 +8266,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>38961</v>
       </c>
@@ -8284,7 +8286,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>38991</v>
       </c>
@@ -8304,7 +8306,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>39022</v>
       </c>
@@ -8324,7 +8326,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>39052</v>
       </c>
@@ -8348,7 +8350,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="47" t="s">
         <v>91</v>
       </c>
@@ -8366,7 +8368,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>39083</v>
       </c>
@@ -8386,7 +8388,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>39114</v>
       </c>
@@ -8406,7 +8408,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>39142</v>
       </c>
@@ -8426,7 +8428,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>39173</v>
       </c>
@@ -8446,7 +8448,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>39203</v>
       </c>
@@ -8466,7 +8468,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>39234</v>
       </c>
@@ -8486,7 +8488,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>39264</v>
       </c>
@@ -8506,7 +8508,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>39295</v>
       </c>
@@ -8526,7 +8528,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>39326</v>
       </c>
@@ -8546,7 +8548,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>39356</v>
       </c>
@@ -8566,7 +8568,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>39387</v>
       </c>
@@ -8586,7 +8588,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>39417</v>
       </c>
@@ -8610,7 +8612,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="47" t="s">
         <v>92</v>
       </c>
@@ -8628,7 +8630,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>39448</v>
       </c>
@@ -8648,7 +8650,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>39479</v>
       </c>
@@ -8668,7 +8670,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>39508</v>
       </c>
@@ -8688,7 +8690,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>39539</v>
       </c>
@@ -8708,7 +8710,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>39569</v>
       </c>
@@ -8728,7 +8730,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>39600</v>
       </c>
@@ -8748,7 +8750,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>39630</v>
       </c>
@@ -8768,7 +8770,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>39661</v>
       </c>
@@ -8788,7 +8790,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>39692</v>
       </c>
@@ -8808,7 +8810,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>39722</v>
       </c>
@@ -8828,7 +8830,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>39753</v>
       </c>
@@ -8848,7 +8850,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>39783</v>
       </c>
@@ -8872,7 +8874,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="47" t="s">
         <v>93</v>
       </c>
@@ -8890,7 +8892,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>39814</v>
       </c>
@@ -8910,7 +8912,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>39845</v>
       </c>
@@ -8930,7 +8932,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>39873</v>
       </c>
@@ -8950,7 +8952,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>39904</v>
       </c>
@@ -8970,7 +8972,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>39934</v>
       </c>
@@ -8990,7 +8992,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>39965</v>
       </c>
@@ -9010,7 +9012,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>39995</v>
       </c>
@@ -9030,7 +9032,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>40026</v>
       </c>
@@ -9050,7 +9052,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>40057</v>
       </c>
@@ -9070,7 +9072,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>40087</v>
       </c>
@@ -9090,7 +9092,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>40118</v>
       </c>
@@ -9110,7 +9112,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>40148</v>
       </c>
@@ -9134,7 +9136,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="47" t="s">
         <v>94</v>
       </c>
@@ -9152,7 +9154,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>40179</v>
       </c>
@@ -9172,7 +9174,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>40210</v>
       </c>
@@ -9192,7 +9194,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>40238</v>
       </c>
@@ -9212,7 +9214,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>40269</v>
       </c>
@@ -9232,7 +9234,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>40299</v>
       </c>
@@ -9252,7 +9254,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>40330</v>
       </c>
@@ -9272,7 +9274,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40360</v>
       </c>
@@ -9292,7 +9294,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>40391</v>
       </c>
@@ -9312,7 +9314,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>40422</v>
       </c>
@@ -9332,7 +9334,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>40452</v>
       </c>
@@ -9352,7 +9354,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>40483</v>
       </c>
@@ -9372,7 +9374,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>40513</v>
       </c>
@@ -9396,7 +9398,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="47" t="s">
         <v>95</v>
       </c>
@@ -9414,7 +9416,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>40544</v>
       </c>
@@ -9434,7 +9436,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>40575</v>
       </c>
@@ -9454,7 +9456,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>40603</v>
       </c>
@@ -9474,7 +9476,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>40634</v>
       </c>
@@ -9494,7 +9496,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>40664</v>
       </c>
@@ -9514,7 +9516,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>40695</v>
       </c>
@@ -9534,7 +9536,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>40725</v>
       </c>
@@ -9554,7 +9556,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>40756</v>
       </c>
@@ -9574,7 +9576,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>40787</v>
       </c>
@@ -9594,7 +9596,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40817</v>
       </c>
@@ -9614,7 +9616,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>40848</v>
       </c>
@@ -9634,7 +9636,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>40878</v>
       </c>
@@ -9658,7 +9660,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="47" t="s">
         <v>96</v>
       </c>
@@ -9676,7 +9678,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>40909</v>
       </c>
@@ -9696,7 +9698,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>40940</v>
       </c>
@@ -9716,7 +9718,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>40969</v>
       </c>
@@ -9736,7 +9738,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>41000</v>
       </c>
@@ -9756,7 +9758,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>41030</v>
       </c>
@@ -9776,7 +9778,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>41061</v>
       </c>
@@ -9796,7 +9798,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>41091</v>
       </c>
@@ -9816,7 +9818,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>41122</v>
       </c>
@@ -9836,7 +9838,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>41153</v>
       </c>
@@ -9856,7 +9858,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>41183</v>
       </c>
@@ -9876,7 +9878,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>41214</v>
       </c>
@@ -9896,7 +9898,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>41244</v>
       </c>
@@ -9920,7 +9922,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="47" t="s">
         <v>97</v>
       </c>
@@ -9938,7 +9940,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>41275</v>
       </c>
@@ -9958,7 +9960,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>41306</v>
       </c>
@@ -9978,7 +9980,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>41334</v>
       </c>
@@ -9998,7 +10000,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>41365</v>
       </c>
@@ -10018,7 +10020,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>41395</v>
       </c>
@@ -10038,7 +10040,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>41426</v>
       </c>
@@ -10058,7 +10060,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>41456</v>
       </c>
@@ -10078,7 +10080,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>41487</v>
       </c>
@@ -10098,7 +10100,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>41518</v>
       </c>
@@ -10118,7 +10120,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>41548</v>
       </c>
@@ -10138,7 +10140,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>41579</v>
       </c>
@@ -10158,7 +10160,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>41609</v>
       </c>
@@ -10182,7 +10184,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="47" t="s">
         <v>98</v>
       </c>
@@ -10200,7 +10202,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>41640</v>
       </c>
@@ -10220,7 +10222,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>41671</v>
       </c>
@@ -10240,7 +10242,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>41699</v>
       </c>
@@ -10260,7 +10262,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>41730</v>
       </c>
@@ -10280,7 +10282,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>41760</v>
       </c>
@@ -10300,7 +10302,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>41791</v>
       </c>
@@ -10320,7 +10322,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>41821</v>
       </c>
@@ -10340,7 +10342,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>41852</v>
       </c>
@@ -10360,7 +10362,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>41883</v>
       </c>
@@ -10380,7 +10382,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>41913</v>
       </c>
@@ -10400,7 +10402,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>41944</v>
       </c>
@@ -10420,7 +10422,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>41974</v>
       </c>
@@ -10444,7 +10446,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
         <v>99</v>
       </c>
@@ -10462,7 +10464,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>42005</v>
       </c>
@@ -10482,7 +10484,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>42036</v>
       </c>
@@ -10502,7 +10504,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>42064</v>
       </c>
@@ -10522,7 +10524,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>42095</v>
       </c>
@@ -10542,7 +10544,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>42125</v>
       </c>
@@ -10562,7 +10564,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>42156</v>
       </c>
@@ -10582,7 +10584,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>42186</v>
       </c>
@@ -10602,7 +10604,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>42217</v>
       </c>
@@ -10622,7 +10624,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>42248</v>
       </c>
@@ -10642,7 +10644,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>42278</v>
       </c>
@@ -10662,7 +10664,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>42309</v>
       </c>
@@ -10682,7 +10684,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>42339</v>
       </c>
@@ -10706,7 +10708,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>100</v>
       </c>
@@ -10724,7 +10726,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>42370</v>
       </c>
@@ -10744,7 +10746,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>42401</v>
       </c>
@@ -10764,7 +10766,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>42430</v>
       </c>
@@ -10784,7 +10786,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>42461</v>
       </c>
@@ -10804,7 +10806,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>42491</v>
       </c>
@@ -10824,7 +10826,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>42522</v>
       </c>
@@ -10844,7 +10846,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>42552</v>
       </c>
@@ -10864,7 +10866,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>42583</v>
       </c>
@@ -10884,7 +10886,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>42614</v>
       </c>
@@ -10904,7 +10906,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>42644</v>
       </c>
@@ -10924,7 +10926,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>42675</v>
       </c>
@@ -10944,7 +10946,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>42705</v>
       </c>
@@ -10968,7 +10970,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
         <v>101</v>
       </c>
@@ -10986,7 +10988,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>42736</v>
       </c>
@@ -11006,7 +11008,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>42767</v>
       </c>
@@ -11026,7 +11028,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>42795</v>
       </c>
@@ -11046,7 +11048,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>42826</v>
       </c>
@@ -11066,7 +11068,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>42856</v>
       </c>
@@ -11086,7 +11088,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>42887</v>
       </c>
@@ -11106,7 +11108,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>42917</v>
       </c>
@@ -11126,7 +11128,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>42948</v>
       </c>
@@ -11146,7 +11148,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>42979</v>
       </c>
@@ -11166,7 +11168,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>43009</v>
       </c>
@@ -11186,7 +11188,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>43040</v>
       </c>
@@ -11206,7 +11208,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <v>43070</v>
       </c>
@@ -11230,7 +11232,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="47" t="s">
         <v>44</v>
       </c>
@@ -11248,7 +11250,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43101</v>
       </c>
@@ -11268,7 +11270,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43132</v>
       </c>
@@ -11288,7 +11290,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43160</v>
       </c>
@@ -11312,7 +11314,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43191</v>
       </c>
@@ -11332,7 +11334,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43221</v>
       </c>
@@ -11352,7 +11354,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43252</v>
       </c>
@@ -11372,7 +11374,7 @@
       <c r="J443" s="12"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43282</v>
       </c>
@@ -11396,7 +11398,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43313</v>
       </c>
@@ -11422,7 +11424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43344</v>
       </c>
@@ -11442,7 +11444,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43374</v>
       </c>
@@ -11468,7 +11470,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -11485,7 +11487,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -11504,7 +11506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43405</v>
       </c>
@@ -11530,7 +11532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43435</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -11575,7 +11577,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
         <v>46</v>
       </c>
@@ -11593,7 +11595,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43466</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43497</v>
       </c>
@@ -11643,7 +11645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43525</v>
       </c>
@@ -11663,7 +11665,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43556</v>
       </c>
@@ -11683,7 +11685,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43586</v>
       </c>
@@ -11709,7 +11711,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -11728,7 +11730,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43617</v>
       </c>
@@ -11748,7 +11750,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43647</v>
       </c>
@@ -11768,7 +11770,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43678</v>
       </c>
@@ -11792,7 +11794,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43709</v>
       </c>
@@ -11818,7 +11820,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>47</v>
@@ -11837,7 +11839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>48</v>
@@ -11856,7 +11858,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43739</v>
       </c>
@@ -11882,7 +11884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43770</v>
       </c>
@@ -11908,7 +11910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43800</v>
       </c>
@@ -11934,7 +11936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="47" t="s">
         <v>60</v>
       </c>
@@ -11952,7 +11954,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43831</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>62</v>
@@ -11993,7 +11995,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43862</v>
       </c>
@@ -12013,7 +12015,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43891</v>
       </c>
@@ -12035,7 +12037,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43922</v>
       </c>
@@ -12055,7 +12057,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43952</v>
       </c>
@@ -12075,7 +12077,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43983</v>
       </c>
@@ -12095,7 +12097,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44013</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -12140,7 +12142,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -12159,7 +12161,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44044</v>
       </c>
@@ -12179,7 +12181,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44075</v>
       </c>
@@ -12199,7 +12201,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44105</v>
       </c>
@@ -12219,7 +12221,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44136</v>
       </c>
@@ -12239,7 +12241,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44166</v>
       </c>
@@ -12263,7 +12265,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="47" t="s">
         <v>65</v>
       </c>
@@ -12281,7 +12283,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44197</v>
       </c>
@@ -12301,7 +12303,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44228</v>
       </c>
@@ -12321,7 +12323,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44256</v>
       </c>
@@ -12341,7 +12343,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44287</v>
       </c>
@@ -12361,7 +12363,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44317</v>
       </c>
@@ -12381,7 +12383,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44348</v>
       </c>
@@ -12401,7 +12403,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44378</v>
       </c>
@@ -12421,7 +12423,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44409</v>
       </c>
@@ -12441,7 +12443,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44440</v>
       </c>
@@ -12461,7 +12463,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44470</v>
       </c>
@@ -12481,7 +12483,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44501</v>
       </c>
@@ -12501,7 +12503,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44531</v>
       </c>
@@ -12527,7 +12529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -12547,7 +12549,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="47" t="s">
         <v>69</v>
       </c>
@@ -12565,7 +12567,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44562</v>
       </c>
@@ -12585,7 +12587,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44593</v>
       </c>
@@ -12605,7 +12607,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44621</v>
       </c>
@@ -12625,7 +12627,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44652</v>
       </c>
@@ -12649,7 +12651,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44682</v>
       </c>
@@ -12669,7 +12671,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44713</v>
       </c>
@@ -12695,7 +12697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>45</v>
@@ -12712,7 +12714,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44743</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44774</v>
       </c>
@@ -12764,7 +12766,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>70</v>
@@ -12783,7 +12785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -12805,7 +12807,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44805</v>
       </c>
@@ -12831,7 +12833,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44835</v>
       </c>
@@ -12857,7 +12859,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>74</v>
@@ -12879,7 +12881,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -12901,7 +12903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44866</v>
       </c>
@@ -12927,7 +12929,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44896</v>
       </c>
@@ -12947,7 +12949,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="47" t="s">
         <v>77</v>
       </c>
@@ -12965,7 +12967,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -12985,7 +12987,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44958</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44986</v>
       </c>
@@ -13033,7 +13035,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>45017</v>
       </c>
@@ -13053,20 +13055,22 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45047</v>
       </c>
       <c r="B522" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39">
         <v>1</v>
@@ -13077,20 +13081,22 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45078</v>
       </c>
       <c r="B523" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C523" s="13"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H523" s="39">
         <v>2</v>
@@ -13101,11 +13107,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45108</v>
       </c>
-      <c r="B524" s="20"/>
+      <c r="B524" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
@@ -13114,12 +13122,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H524" s="39"/>
+      <c r="H524" s="39">
+        <v>2</v>
+      </c>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
-    </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K524" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45139</v>
       </c>
@@ -13137,7 +13149,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45170</v>
       </c>
@@ -13155,7 +13167,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45200</v>
       </c>
@@ -13173,7 +13185,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45231</v>
       </c>
@@ -13191,7 +13203,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45261</v>
       </c>
@@ -13209,7 +13221,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13225,7 +13237,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13241,7 +13253,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13257,7 +13269,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13273,7 +13285,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13289,7 +13301,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13305,7 +13317,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13321,7 +13333,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13337,7 +13349,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13353,7 +13365,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13369,7 +13381,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13385,7 +13397,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13401,7 +13413,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13417,7 +13429,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13433,7 +13445,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13449,7 +13461,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13465,7 +13477,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13481,7 +13493,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13497,7 +13509,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13513,7 +13525,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13529,7 +13541,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13545,7 +13557,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13561,7 +13573,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13577,7 +13589,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13593,7 +13605,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13609,7 +13621,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13625,7 +13637,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13641,7 +13653,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13657,7 +13669,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13673,7 +13685,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13689,7 +13701,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13705,7 +13717,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13721,7 +13733,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -13737,7 +13749,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -13753,7 +13765,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -13769,7 +13781,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -13785,7 +13797,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -13801,7 +13813,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -13817,7 +13829,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -13833,7 +13845,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -13849,7 +13861,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -13865,7 +13877,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -13881,7 +13893,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="15"/>
       <c r="C572" s="41"/>
@@ -13912,10 +13924,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13938,28 +13950,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -13972,7 +13984,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14001,7 +14013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.058</v>
       </c>
@@ -14031,17 +14043,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>239</v>
       </c>
@@ -14065,10 +14077,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>581.11400000000003</v>
+        <v>584.11400000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14096,7 +14108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14122,7 +14134,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14148,7 +14160,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14174,7 +14186,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14200,7 +14212,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14226,7 +14238,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14252,7 +14264,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14278,7 +14290,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14298,7 +14310,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14318,7 +14330,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14338,7 +14350,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14359,7 +14371,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14380,7 +14392,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14401,7 +14413,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14422,7 +14434,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14443,7 +14455,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14464,7 +14476,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14485,7 +14497,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14506,7 +14518,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14527,7 +14539,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14548,7 +14560,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14569,7 +14581,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14590,7 +14602,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14611,7 +14623,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14632,7 +14644,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14653,7 +14665,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14674,7 +14686,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14695,7 +14707,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14716,7 +14728,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14737,7 +14749,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14758,7 +14770,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14767,7 +14779,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14776,7 +14788,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14785,7 +14797,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14794,7 +14806,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14803,7 +14815,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14812,7 +14824,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14821,7 +14833,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14830,7 +14842,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14839,7 +14851,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14848,7 +14860,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14857,7 +14869,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14866,7 +14878,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14875,7 +14887,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14884,7 +14896,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14893,7 +14905,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14902,7 +14914,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14911,7 +14923,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14920,7 +14932,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14929,7 +14941,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14938,7 +14950,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14947,7 +14959,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14956,7 +14968,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14965,7 +14977,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14974,7 +14986,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14983,7 +14995,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14992,7 +15004,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15001,7 +15013,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15010,7 +15022,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15019,7 +15031,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
